--- a/data/long_razon/P23_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P23_1-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-55,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-25,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-41,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,76; 92,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-81,72; -15,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 123,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,57; 20,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 76,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,52; -10,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>103,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-42,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,51; 274,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,81; -2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 86,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 80,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,3; 125,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 17,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>118,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,68; 57,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 35,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,87; 200,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,45; 99,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 10,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 85,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 6,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,15; 159,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 20,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,41; 96,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 5,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>133,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 106,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 34,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,34; 275,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 47,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,24; 121,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 27,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>79,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 42,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,88; 176,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 130,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 122,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 63,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 102,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>69,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,43 +1345,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,9; 54,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,4; 100,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,39; 62,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 3,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
